--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2721557.639486011</v>
+        <v>2781309.323286574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484436</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4806710.491567767</v>
+        <v>4866489.516104887</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>325.1742879987709</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>284.5373769136796</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>152.355512532834</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>163.293878347428</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>310.7925313457835</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>315.7090974304646</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.26638665539729</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.4594889613529</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,7 +1193,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>71.45813985858865</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.41458770746058</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>228.8762324996551</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2737862279054</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0608774216537</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>41.94061297377366</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>82.43648595644039</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225886</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.77283765622153</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>103.3456594571961</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,7 +3029,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556936</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098042</v>
+        <v>181.1112426721133</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>60.50811316835672</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968882</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929903</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475784</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.0342648110784</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968882</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929903</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>112.6193665301748</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>113.7640068745939</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968882</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.4863909835149</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174327</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>133.149499706135</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600835</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>89.69344195541413</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929903</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353363</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174327</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570398</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>442.6066390714051</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>408.5045702952325</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>376.6351895100811</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>484.2135845561366</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>469.1115251758513</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>464.8658055159088</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4492,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>2187.524650040843</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497385</v>
+        <v>1749.382177224266</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6687723645871</v>
+        <v>1313.47239239871</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>879.6976475570056</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662133</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.918975425704</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.918975425704</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.918975425704</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.918975425704</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1351.019759470484</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515264</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2520.804278925296</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2505.702219545011</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>2501.456499885068</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>707.7326516402958</v>
+        <v>900.9284236664084</v>
       </c>
       <c r="C7" t="n">
-        <v>535.1709401235207</v>
+        <v>728.3667121496334</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2929473250434</v>
+        <v>562.4887193511561</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>392.7307156018933</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>1644.389100125471</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T7" t="n">
-        <v>1644.389100125471</v>
+        <v>2402.973381028048</v>
       </c>
       <c r="U7" t="n">
-        <v>1644.389100125471</v>
+        <v>2124.540380281153</v>
       </c>
       <c r="V7" t="n">
-        <v>1644.389100125471</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.362695711762</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>1126.970941045175</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.5512703592829</v>
+        <v>1092.747042385396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.164238080161</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.1238364150125</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>774.5621248982375</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>308.7021231727439</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>728.7550221176472</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1425.157025666709</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.765271000121</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1138.942455134</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.014949022315</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282468</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472687</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.516713731047</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.516713731047</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3441.696380301353</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4270.006255134749</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4816.505041093344</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093344</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4816.505041093344</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4596.437813966382</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4337.215511283399</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3974.598561217225</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3569.743106628258</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.600643207569</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2742.314519507222</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>946.8261378987979</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>774.2644263820231</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>608.3864335835458</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>438.6284298342831</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>261.9213757960392</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.571889430038</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.571889430038</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2448.871095260437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.438094513542</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.482586383973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.456181970264</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.064427303677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.644756617785</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2232.363075206152</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282469</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>96.74689019472687</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.516713731047</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.516713731047</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3441.696380301353</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4270.006255134749</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4816.505041093344</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093344</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150219</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467236</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401062</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812096</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391407</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.66264569106</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.510268635271</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C16" t="n">
-        <v>836.948557118496</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D16" t="n">
-        <v>836.948557118496</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E16" t="n">
-        <v>667.1905533692332</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F16" t="n">
-        <v>490.4834993309894</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G16" t="n">
-        <v>324.892224356817</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H16" t="n">
-        <v>184.9900500471915</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.748342022664</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.868895601119</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.435894854224</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1946.166717120446</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.140312706737</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.74855804015</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1201.328887354258</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,22 +5519,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176684</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
         <v>267.852115244952</v>
@@ -5674,10 +5674,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
@@ -5698,7 +5698,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.7810588588591</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2674.705462642043</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2428.826016220498</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.393015473604</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.411102930326</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
         <v>2090.757574835212</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068282</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2718.103355948861</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2718.103355948861</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3698.283022519168</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4526.592897352563</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5073.091683311159</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311159</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941453</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>836.1321743895101</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>666.3372153191926</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>666.3372153191926</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>499.3459640163875</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>325.4056624246014</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>162.5811398968867</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.689311047491</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2321.576617072404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.910368771967</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1761.721613088855</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1492.461961121604</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X37" t="n">
-        <v>1249.836958901474</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y37" t="n">
-        <v>1025.18404066204</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068284</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195805</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766111</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599507</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558102</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311159</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941453</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>998.0414868008817</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>828.2465277305641</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>828.2465277305641</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>661.255276427759</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>487.3149748359728</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>324.4904523082581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450903</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.689311047491</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2321.576617072404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2207.819681183338</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1923.630925500226</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.371273532975</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.746271312845</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1187.093353073411</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546714</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176595</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579151</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276366</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731043</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3401.74605007353</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4230.055924906927</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865521</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865521</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815312</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578786</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959071</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.974664816561</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842329</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585164</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.221987703989</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>985.4270286336712</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>822.3157882816514</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>655.3245369788463</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>481.3842353870601</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593454</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961775</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854125</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2599.590368678857</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T43" t="n">
-        <v>2356.47767470377</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U43" t="n">
-        <v>2080.811426403333</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>2080.811426403333</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1811.551774436082</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1568.926772215952</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.273853976518</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2214.54676454999</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.171044179871</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1346.028011800774</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>915.0200194055269</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579151</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276366</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731044</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073531</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906927</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865522</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865522</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815312</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.913564578786</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3862.063366959071</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3459.974664816561</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.59895384233</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2638.079582588441</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917988</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>848.8525037887684</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>679.057544718451</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>515.9463043664314</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>348.9550530636261</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450252</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731044</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702294</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2577.409640446749</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.296946471662</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2058.630698171225</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1774.441942488113</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.182290520862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1262.557288300732</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.904370061298</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,22 +8140,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>243.6685872558677</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>33.39342414375221</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>20.72895681335831</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>20.72895681335831</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7238147663465</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965926</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>971.2626365578431</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>971.262636557844</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>204.8848155887558</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.146865729423844</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.7001706667572</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>96.56253959275557</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>201.6494670918335</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627245</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>113.8761173587618</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>8.789189859683972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484995</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>75.25595447617948</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484995</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>160.2902192872579</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>287.7001706667562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>40.42347910947539</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262808</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>287.7001706667563</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>82.50745662045419</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.0342648110784</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968882</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>414374.7831085087</v>
+        <v>418602.2239162672</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>414374.7831085087</v>
+        <v>419363.3839315756</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403676.9385086522</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403676.9385086522</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423038.973796659</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423038.973796659</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404694.9778428769</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404694.9778428768</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>503956.6505522783</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>503956.6505522784</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373522</v>
@@ -26335,25 +26335,25 @@
         <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="K2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="L2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="M2" t="n">
         <v>526857.5841373523</v>
       </c>
-      <c r="K2" t="n">
-        <v>526857.5841373523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>526857.5841373523</v>
-      </c>
-      <c r="M2" t="n">
-        <v>528424.83155675</v>
-      </c>
       <c r="N2" t="n">
-        <v>528424.8315567502</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
-        <v>505523.8979716765</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>505523.8979716764</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998243</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932544</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319069</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877279</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622041</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017872</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955544</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26480.73411227665</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26480.73411227665</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26445,19 +26445,19 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.0787502026</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>30184.23283653124</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>30184.23283653125</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>28980.88819860521</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="P4" t="n">
-        <v>28980.88819860521</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461882</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461882</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663664</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663664</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546294</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546295</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>153098.8446330139</v>
       </c>
       <c r="C6" t="n">
-        <v>295290.1452927239</v>
+        <v>259114.0403918348</v>
       </c>
       <c r="D6" t="n">
-        <v>295290.145292724</v>
+        <v>319649.8995466484</v>
       </c>
       <c r="E6" t="n">
-        <v>171424.8378221285</v>
+        <v>239076.9332209247</v>
       </c>
       <c r="F6" t="n">
-        <v>404265.039815383</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="G6" t="n">
-        <v>401136.1827581665</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="H6" t="n">
-        <v>421455.266781357</v>
+        <v>421432.0424419745</v>
       </c>
       <c r="I6" t="n">
-        <v>421455.266781357</v>
+        <v>421432.0424419742</v>
       </c>
       <c r="J6" t="n">
-        <v>310440.8014363669</v>
+        <v>310417.577096984</v>
       </c>
       <c r="K6" t="n">
-        <v>421455.2667813571</v>
+        <v>368386.1878032016</v>
       </c>
       <c r="L6" t="n">
-        <v>421455.2667813572</v>
+        <v>412039.7407153523</v>
       </c>
       <c r="M6" t="n">
-        <v>226860.154901795</v>
+        <v>269231.8715039868</v>
       </c>
       <c r="N6" t="n">
-        <v>420899.3330035823</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="O6" t="n">
-        <v>403709.1060376083</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="P6" t="n">
-        <v>403709.1060376082</v>
+        <v>421432.0424419743</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532315</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140955</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962759</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532315</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140955</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>108.58676008964</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>116.2695231293974</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.7049111789361</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0122620221433</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.2440434342752</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>105.382568359586</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>125.9611629959764</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>329.3487601844884</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.7308862715722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921993015</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921993015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34720,7 +34720,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,22 +34860,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>243.6685872558677</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238425</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>33.39342414375221</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>20.72895681335831</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>20.72895681335831</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049995</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7238147663465</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107368</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965926</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107368</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,10 +37789,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>971.2626365578431</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107368</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865519</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>971.262636557844</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107369</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
